--- a/output/meral/2023/sheets/year_2023.xlsx
+++ b/output/meral/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>39.98387096774194</v>
+        <v>48.72590822424581</v>
       </c>
       <c r="C2" t="n">
-        <v>28.47096774193548</v>
+        <v>40.4294855989381</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>43.85714285714285</v>
+        <v>49.41803871504946</v>
       </c>
       <c r="C3" t="n">
-        <v>27.67857142857143</v>
+        <v>42.797090151777</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>41.29032258064516</v>
+        <v>50.07011533702853</v>
       </c>
       <c r="C4" t="n">
-        <v>30.16129032258065</v>
+        <v>41.89235693631144</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.21666666666667</v>
+        <v>46.35819872519319</v>
       </c>
       <c r="C5" t="n">
-        <v>28.74666666666667</v>
+        <v>42.67420971604264</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.31935483870968</v>
+        <v>46.19301156821617</v>
       </c>
       <c r="C6" t="n">
-        <v>22.91935483870968</v>
+        <v>41.60030926048456</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.55666666666666</v>
+        <v>52.00777456171298</v>
       </c>
       <c r="C7" t="n">
-        <v>26.05666666666667</v>
+        <v>44.66004497707807</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>46.88064516129032</v>
+        <v>48.70698753847026</v>
       </c>
       <c r="C8" t="n">
-        <v>35.62580645161291</v>
+        <v>43.4098818238231</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.55806451612902</v>
+        <v>48.56317883392493</v>
       </c>
       <c r="C9" t="n">
-        <v>19.58064516129033</v>
+        <v>40.61665342367168</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.64333333333333</v>
+        <v>55.94127144233751</v>
       </c>
       <c r="C10" t="n">
-        <v>35.34666666666667</v>
+        <v>50.14806377269365</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.0774193548387</v>
+        <v>49.90234855348262</v>
       </c>
       <c r="C11" t="n">
-        <v>40.15806451612903</v>
+        <v>45.14771961861435</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.13666666666666</v>
+        <v>48.60889129485714</v>
       </c>
       <c r="C12" t="n">
-        <v>31.72666666666667</v>
+        <v>43.55706531065444</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.55483870967742</v>
+        <v>48.6059402301558</v>
       </c>
       <c r="C13" t="n">
-        <v>36.96451612903226</v>
+        <v>44.85006789796005</v>
       </c>
     </row>
   </sheetData>
